--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39478.00359015234</v>
+        <v>30988.28258091331</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29744719.06541506</v>
+        <v>29744719.06541505</v>
       </c>
     </row>
     <row r="8">
@@ -1372,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>181.8237708200532</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>18.54772008664298</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.32136466519032</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T12" t="n">
         <v>136.7309641056443</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8596299154304</v>
+        <v>182.8596299154307</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>17.43855890052398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.15132080522568</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>145.3531645661221</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>67.52173953264118</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466519032</v>
       </c>
       <c r="T15" t="n">
-        <v>136.7309641056449</v>
+        <v>136.7309641056443</v>
       </c>
       <c r="U15" t="n">
         <v>182.8596299154304</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>163.4404558095559</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>218.8226155927194</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>199.4130558061291</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.1790717186133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
-        <v>136.7309641056449</v>
+        <v>136.7309641056443</v>
       </c>
       <c r="U18" t="n">
         <v>182.8596299154304</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>41.82377889087245</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
@@ -2061,16 +2061,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.44862556108682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>384.7207150234099</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>161.7166762527576</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.644278028626</v>
+        <v>126.8047072643589</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T23" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>26.46615630665752</v>
+        <v>11.56587804842534</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.5236657468191</v>
       </c>
       <c r="F25" t="n">
-        <v>108.6835547225991</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U25" t="n">
         <v>277.3402845023203</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>18.54772008664298</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2566,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>80.6983480668907</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>108.6835547225988</v>
+        <v>97.0007122468182</v>
       </c>
       <c r="U28" t="n">
         <v>277.3402845023203</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>205.5516496779707</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>58.2213094455774</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>108.6835547225993</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U31" t="n">
         <v>277.3402845023203</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.273967113233274</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H32" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>272.0839853675005</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U34" t="n">
-        <v>215.8806827417339</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>165.3272063026432</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>248.7704982544761</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T35" t="n">
         <v>211.1448086517629</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>302.7276056316682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.8257357468524</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3402845023203</v>
+        <v>163.7731380869121</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.34622835333786</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T38" t="n">
         <v>211.1448086517629</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>160.9001403284853</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>129.7892113972149</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>210.4199295107337</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.93218448593142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>87.60054774029672</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>143.1965086850918</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.5660300744983</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>193.9758894681476</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>344.0404778467714</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4347509574653</v>
+        <v>108.7932357292868</v>
       </c>
       <c r="U46" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1145.744604785013</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C11" t="n">
-        <v>718.8438747983129</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D11" t="n">
-        <v>718.8438747983129</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E11" t="n">
-        <v>718.8438747983129</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F11" t="n">
-        <v>718.8438747983129</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103477</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1565.592969076543</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U11" t="n">
-        <v>1565.592969076543</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V11" t="n">
-        <v>1565.592969076543</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W11" t="n">
-        <v>1565.592969076543</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X11" t="n">
-        <v>1565.592969076543</v>
+        <v>1730.518272847664</v>
       </c>
       <c r="Y11" t="n">
-        <v>1565.592969076543</v>
+        <v>1730.518272847664</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>148.7086316845723</v>
       </c>
       <c r="K12" t="n">
-        <v>590.3389055456199</v>
+        <v>274.4772572558124</v>
       </c>
       <c r="L12" t="n">
-        <v>805.60295533206</v>
+        <v>451.1161080864613</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.877653813075</v>
+        <v>660.3908065674764</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645391</v>
+        <v>877.5457883997926</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632878</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1225.987570233632</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453736</v>
@@ -5147,10 +5147,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
         <v>1427.028547670861</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.1012834034805</v>
+        <v>866.2352006574633</v>
       </c>
       <c r="C13" t="n">
-        <v>613.1287202823964</v>
+        <v>694.2626375363793</v>
       </c>
       <c r="D13" t="n">
-        <v>449.8119474091671</v>
+        <v>694.2626375363793</v>
       </c>
       <c r="E13" t="n">
-        <v>449.8119474091671</v>
+        <v>528.0544316892328</v>
       </c>
       <c r="F13" t="n">
-        <v>277.9501731837275</v>
+        <v>356.1926574637932</v>
       </c>
       <c r="G13" t="n">
-        <v>112.4768981516335</v>
+        <v>190.7193824316992</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>53.8908720385175</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="J13" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K13" t="n">
-        <v>216.556252028182</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L13" t="n">
-        <v>665.4738072482863</v>
+        <v>746.3969197472757</v>
       </c>
       <c r="M13" t="n">
-        <v>763.5271548259055</v>
+        <v>844.4502673248949</v>
       </c>
       <c r="N13" t="n">
-        <v>860.5258609178535</v>
+        <v>941.4489734168428</v>
       </c>
       <c r="O13" t="n">
-        <v>1309.443416137958</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P13" t="n">
-        <v>1692.940728852401</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1719.026320807486</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1719.026320807486</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1719.026320807486</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.026320807486</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="W13" t="n">
-        <v>1444.173916979999</v>
+        <v>1298.965065923724</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.610020425804</v>
+        <v>1056.401169369529</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.2672521155462</v>
+        <v>1056.401169369529</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183.0975444280106</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="C14" t="n">
-        <v>183.0975444280106</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="D14" t="n">
-        <v>183.0975444280106</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="E14" t="n">
-        <v>183.0975444280106</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303107</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.315579046524</v>
+        <v>1681.049566336555</v>
       </c>
       <c r="V14" t="n">
-        <v>984.8261641727734</v>
+        <v>1681.049566336555</v>
       </c>
       <c r="W14" t="n">
-        <v>588.4348144731202</v>
+        <v>1681.049566336555</v>
       </c>
       <c r="X14" t="n">
-        <v>588.4348144731202</v>
+        <v>1269.329567504302</v>
       </c>
       <c r="Y14" t="n">
-        <v>183.0975444280106</v>
+        <v>863.9922974591925</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I15" t="n">
         <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>433.5238427951067</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K15" t="n">
-        <v>559.2924683663467</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L15" t="n">
-        <v>735.9313191969957</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M15" t="n">
-        <v>945.2060176780107</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N15" t="n">
-        <v>1162.360999510327</v>
+        <v>1102.021080428524</v>
       </c>
       <c r="O15" t="n">
-        <v>1357.404666497813</v>
+        <v>1297.064747416011</v>
       </c>
       <c r="P15" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
@@ -5384,7 +5384,7 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
         <v>1611.735244555134</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.4547131770611</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="C16" t="n">
-        <v>371.4547131770611</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D16" t="n">
-        <v>208.1379403038318</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E16" t="n">
-        <v>208.1379403038318</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27616607839228</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>478.4129675942053</v>
+        <v>606.7836421246716</v>
       </c>
       <c r="M16" t="n">
-        <v>805.2876227700464</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N16" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1562.016618765574</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U16" t="n">
-        <v>1396.925249260972</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="V16" t="n">
-        <v>1115.213781869001</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="W16" t="n">
-        <v>840.3613780415141</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="X16" t="n">
-        <v>597.7974814873191</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="Y16" t="n">
-        <v>371.4547131770611</v>
+        <v>916.1654365227246</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J17" t="n">
         <v>184.296341114908</v>
@@ -5524,7 +5524,7 @@
         <v>598.9981372303101</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103478</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1555.593163543254</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>1198.103748669504</v>
+        <v>920.271203895413</v>
       </c>
       <c r="W17" t="n">
-        <v>801.7123989698505</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="X17" t="n">
-        <v>389.9924001375977</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
         <v>267.3889916489643</v>
@@ -5603,13 +5603,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780107</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
         <v>1510.802781344166</v>
@@ -5624,22 +5624,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.276225418369</v>
+        <v>378.6676906487149</v>
       </c>
       <c r="C19" t="n">
-        <v>744.303662297285</v>
+        <v>378.6676906487149</v>
       </c>
       <c r="D19" t="n">
-        <v>580.9868894240557</v>
+        <v>215.3509177754856</v>
       </c>
       <c r="E19" t="n">
-        <v>414.7786835769092</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F19" t="n">
-        <v>414.7786835769092</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G19" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
@@ -5676,49 +5676,49 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>757.9696303485085</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N19" t="n">
-        <v>1206.887185568613</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O19" t="n">
-        <v>1655.804740788717</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P19" t="n">
-        <v>1726.545848929853</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.198381565876</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V19" t="n">
-        <v>1137.198381565876</v>
+        <v>843.6860631882676</v>
       </c>
       <c r="W19" t="n">
-        <v>1137.198381565876</v>
+        <v>568.8336593607805</v>
       </c>
       <c r="X19" t="n">
-        <v>1137.198381565876</v>
+        <v>568.8336593607805</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.442194130435</v>
+        <v>568.8336593607805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>461.4003478889921</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="C20" t="n">
-        <v>461.4003478889921</v>
+        <v>850.8598887824639</v>
       </c>
       <c r="D20" t="n">
-        <v>461.4003478889921</v>
+        <v>850.8598887824639</v>
       </c>
       <c r="E20" t="n">
-        <v>461.4003478889921</v>
+        <v>424.8829489303215</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839228</v>
+        <v>424.8829489303215</v>
       </c>
       <c r="G20" t="n">
         <v>36.27616607839228</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303106</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103478</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1650.458125886526</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V20" t="n">
-        <v>1292.968711012775</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W20" t="n">
-        <v>1292.968711012775</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="X20" t="n">
-        <v>881.2487121805221</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="Y20" t="n">
-        <v>881.2487121805221</v>
+        <v>1277.760618769164</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967556</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L21" t="n">
-        <v>443.8288267274046</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1035252084196</v>
+        <v>921.7487118335988</v>
       </c>
       <c r="N21" t="n">
-        <v>870.2585070407357</v>
+        <v>1138.903693665915</v>
       </c>
       <c r="O21" t="n">
-        <v>1065.302174028222</v>
+        <v>1333.947360653402</v>
       </c>
       <c r="P21" t="n">
-        <v>1225.987570233631</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5910,19 +5910,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>587.5520906000656</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>1036.46964582017</v>
+        <v>1157.206471898203</v>
       </c>
       <c r="N22" t="n">
-        <v>1485.387201040275</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O22" t="n">
         <v>1703.122733210255</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1601.036305910901</v>
+        <v>1685.722741026322</v>
       </c>
       <c r="U22" t="n">
-        <v>1320.894604393405</v>
+        <v>1405.581039508827</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.183137001434</v>
+        <v>1123.869572116856</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.183137001434</v>
+        <v>849.0171682893687</v>
       </c>
       <c r="X22" t="n">
-        <v>796.6192404472395</v>
+        <v>606.4532717351738</v>
       </c>
       <c r="Y22" t="n">
-        <v>570.2764721369815</v>
+        <v>380.1105034249158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>742.228865080255</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C23" t="n">
-        <v>742.228865080255</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D23" t="n">
-        <v>742.228865080255</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E23" t="n">
-        <v>316.2519252281125</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F23" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G23" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H23" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I23" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J23" t="n">
-        <v>184.2963411149082</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K23" t="n">
         <v>366.7061291250301</v>
       </c>
       <c r="L23" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M23" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N23" t="n">
         <v>1131.245262923652</v>
@@ -6016,25 +6016,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S23" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T23" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U23" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V23" t="n">
-        <v>1573.797228204038</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="W23" t="n">
-        <v>1573.797228204038</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="X23" t="n">
-        <v>1162.077229371785</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="Y23" t="n">
-        <v>1162.077229371785</v>
+        <v>1737.570638542834</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I24" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J24" t="n">
-        <v>433.5238427951067</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K24" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014106</v>
       </c>
       <c r="L24" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320595</v>
       </c>
       <c r="M24" t="n">
-        <v>945.2060176780108</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N24" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O24" t="n">
-        <v>1357.404666497814</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P24" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q24" t="n">
         <v>1674.905125453736</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>318.0300976061421</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="C25" t="n">
-        <v>146.0575344850581</v>
+        <v>166.0980506711389</v>
       </c>
       <c r="D25" t="n">
-        <v>146.0575344850581</v>
+        <v>166.0980506711389</v>
       </c>
       <c r="E25" t="n">
-        <v>146.0575344850581</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F25" t="n">
         <v>36.27616607839228</v>
@@ -6153,7 +6153,7 @@
         <v>138.6345353799611</v>
       </c>
       <c r="L25" t="n">
-        <v>356.3700675499418</v>
+        <v>587.5520906000656</v>
       </c>
       <c r="M25" t="n">
         <v>805.2876227700463</v>
@@ -6174,25 +6174,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S25" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T25" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U25" t="n">
-        <v>1533.666602402119</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V25" t="n">
-        <v>1251.955135010148</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W25" t="n">
-        <v>977.1027311826606</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X25" t="n">
-        <v>734.5388346284657</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.1960663182077</v>
+        <v>338.0706137922228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.959939628083</v>
+        <v>1329.404979350723</v>
       </c>
       <c r="C26" t="n">
-        <v>967.0592096413836</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D26" t="n">
-        <v>543.7665888263839</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E26" t="n">
-        <v>117.7896489742415</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F26" t="n">
         <v>36.27616607839227</v>
@@ -6229,13 +6229,13 @@
         <v>184.296341114908</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L26" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M26" t="n">
-        <v>862.6140377103479</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N26" t="n">
         <v>1131.245262923652</v>
@@ -6253,25 +6253,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>712.4740133525838</v>
       </c>
       <c r="M27" t="n">
-        <v>921.7487118335989</v>
+        <v>921.7487118335988</v>
       </c>
       <c r="N27" t="n">
         <v>1138.903693665915</v>
@@ -6323,10 +6323,10 @@
         <v>1333.947360653402</v>
       </c>
       <c r="P27" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q27" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R27" t="n">
         <v>1813.808303919613</v>
@@ -6384,19 +6384,19 @@
         <v>36.27616607839227</v>
       </c>
       <c r="J28" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K28" t="n">
-        <v>216.556252028182</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L28" t="n">
-        <v>606.7836421246716</v>
+        <v>834.8346997140875</v>
       </c>
       <c r="M28" t="n">
-        <v>1055.701197344776</v>
+        <v>932.8880472917067</v>
       </c>
       <c r="N28" t="n">
-        <v>1152.699903436724</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O28" t="n">
         <v>1238.993031259048</v>
@@ -6408,10 +6408,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R28" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S28" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T28" t="n">
         <v>1704.026935512948</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.0855695587735</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="C29" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="D29" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="E29" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F29" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G29" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H29" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I29" t="n">
         <v>68.08893453872669</v>
@@ -6469,7 +6469,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L29" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M29" t="n">
         <v>862.6140377103479</v>
@@ -6490,25 +6490,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S29" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T29" t="n">
         <v>1535.975759145523</v>
       </c>
       <c r="U29" t="n">
-        <v>1277.760618769164</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V29" t="n">
-        <v>920.2712038954132</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W29" t="n">
-        <v>920.2712038954132</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X29" t="n">
-        <v>920.2712038954132</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="Y29" t="n">
-        <v>514.9339338503036</v>
+        <v>523.8798541957597</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>475.930883860742</v>
       </c>
       <c r="D30" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E30" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F30" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G30" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H30" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I30" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J30" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7326700523438</v>
+        <v>628.9641045014106</v>
       </c>
       <c r="L30" t="n">
-        <v>420.3715208829927</v>
+        <v>805.6029553320595</v>
       </c>
       <c r="M30" t="n">
-        <v>629.6462193640077</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N30" t="n">
-        <v>983.0012886846976</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O30" t="n">
-        <v>1178.044955672184</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P30" t="n">
-        <v>1331.443070518537</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q30" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R30" t="n">
         <v>1813.808303919613</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.2487291994763</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="D31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="E31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="F31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="G31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="H31" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="I31" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J31" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K31" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L31" t="n">
-        <v>556.3346842424261</v>
+        <v>587.5520906000654</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.25223946253</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N31" t="n">
-        <v>1102.250945554478</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O31" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q31" t="n">
         <v>1813.808303919614</v>
@@ -6651,22 +6651,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T31" t="n">
-        <v>1704.026935512948</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U31" t="n">
-        <v>1423.885233995453</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V31" t="n">
-        <v>1142.173766603482</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W31" t="n">
-        <v>867.3213627759948</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X31" t="n">
-        <v>624.7574662217999</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y31" t="n">
-        <v>398.4146979115419</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C32" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D32" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E32" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F32" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G32" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H32" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I32" t="n">
-        <v>68.08893453872666</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J32" t="n">
         <v>184.296341114908</v>
@@ -6706,10 +6706,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L32" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M32" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103478</v>
       </c>
       <c r="N32" t="n">
         <v>1131.245262923652</v>
@@ -6727,10 +6727,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S32" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T32" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U32" t="n">
         <v>1491.038203265894</v>
@@ -6739,13 +6739,13 @@
         <v>1133.548788392143</v>
       </c>
       <c r="W32" t="n">
-        <v>1133.548788392143</v>
+        <v>858.7164799401228</v>
       </c>
       <c r="X32" t="n">
-        <v>1133.548788392143</v>
+        <v>858.7164799401228</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.2115183470333</v>
+        <v>858.7164799401228</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C33" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D33" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E33" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F33" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G33" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H33" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I33" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J33" t="n">
-        <v>433.5238427951067</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K33" t="n">
-        <v>559.2924683663467</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L33" t="n">
-        <v>805.6029553320593</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.877653813074</v>
+        <v>921.7487118335988</v>
       </c>
       <c r="N33" t="n">
-        <v>1232.032635645391</v>
+        <v>1138.903693665915</v>
       </c>
       <c r="O33" t="n">
-        <v>1427.076302632877</v>
+        <v>1333.947360653402</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.47441747923</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q33" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R33" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S33" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T33" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U33" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V33" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W33" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X33" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y33" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.1105034249158</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C34" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D34" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E34" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F34" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G34" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H34" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I34" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J34" t="n">
         <v>148.0721041840598</v>
@@ -6864,7 +6864,7 @@
         <v>463.838861142204</v>
       </c>
       <c r="L34" t="n">
-        <v>606.7836421246716</v>
+        <v>606.7836421246718</v>
       </c>
       <c r="M34" t="n">
         <v>1055.701197344776</v>
@@ -6873,7 +6873,7 @@
         <v>1152.699903436724</v>
       </c>
       <c r="O34" t="n">
-        <v>1238.993031259048</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P34" t="n">
         <v>1622.490343973492</v>
@@ -6885,25 +6885,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S34" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T34" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U34" t="n">
-        <v>1595.747008220892</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V34" t="n">
-        <v>1314.035540828921</v>
+        <v>970.2012034823979</v>
       </c>
       <c r="W34" t="n">
-        <v>1039.183137001434</v>
+        <v>695.3487996549109</v>
       </c>
       <c r="X34" t="n">
-        <v>796.6192404472395</v>
+        <v>452.784903100716</v>
       </c>
       <c r="Y34" t="n">
-        <v>570.2764721369815</v>
+        <v>226.4421347904579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>463.1768960650922</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="C35" t="n">
-        <v>36.27616607839227</v>
+        <v>712.68367945917</v>
       </c>
       <c r="D35" t="n">
-        <v>36.27616607839227</v>
+        <v>712.68367945917</v>
       </c>
       <c r="E35" t="n">
-        <v>36.27616607839227</v>
+        <v>712.68367945917</v>
       </c>
       <c r="F35" t="n">
-        <v>36.27616607839227</v>
+        <v>287.5594976485702</v>
       </c>
       <c r="G35" t="n">
         <v>36.27616607839227</v>
@@ -6943,7 +6943,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L35" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M35" t="n">
         <v>862.6140377103479</v>
@@ -6964,25 +6964,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S35" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T35" t="n">
-        <v>1600.530719422883</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U35" t="n">
-        <v>1600.530719422883</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V35" t="n">
-        <v>1600.530719422883</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W35" t="n">
-        <v>1600.530719422883</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="X35" t="n">
-        <v>1188.810720590631</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="Y35" t="n">
-        <v>883.0252603566223</v>
+        <v>1139.58440944587</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I36" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J36" t="n">
-        <v>271.4329055423823</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K36" t="n">
-        <v>397.2015311136223</v>
+        <v>628.9641045014106</v>
       </c>
       <c r="L36" t="n">
-        <v>573.8403819442713</v>
+        <v>805.6029553320595</v>
       </c>
       <c r="M36" t="n">
-        <v>783.1150804252864</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N36" t="n">
         <v>1232.032635645391</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.5837784570099</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="C37" t="n">
-        <v>373.6112153359259</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D37" t="n">
-        <v>373.6112153359259</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E37" t="n">
-        <v>373.6112153359259</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F37" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G37" t="n">
         <v>36.27616607839227</v>
@@ -7098,22 +7098,22 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K37" t="n">
-        <v>263.8742444497198</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L37" t="n">
-        <v>356.3700675499419</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M37" t="n">
-        <v>805.2876227700463</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N37" t="n">
-        <v>1254.205177990151</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O37" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P37" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q37" t="n">
         <v>1813.808303919614</v>
@@ -7122,25 +7122,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S37" t="n">
-        <v>1766.509580942995</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T37" t="n">
-        <v>1766.509580942995</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U37" t="n">
-        <v>1486.367879425499</v>
+        <v>1251.912670874369</v>
       </c>
       <c r="V37" t="n">
-        <v>1204.656412033528</v>
+        <v>970.2012034823977</v>
       </c>
       <c r="W37" t="n">
-        <v>1204.656412033528</v>
+        <v>695.3487996549107</v>
       </c>
       <c r="X37" t="n">
-        <v>962.0925154793335</v>
+        <v>452.7849031007159</v>
       </c>
       <c r="Y37" t="n">
-        <v>735.7497471690756</v>
+        <v>226.4421347904579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.1538359172346</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C38" t="n">
-        <v>462.2531059305347</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D38" t="n">
-        <v>462.2531059305347</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E38" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F38" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G38" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H38" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I38" t="n">
         <v>68.08893453872669</v>
@@ -7180,7 +7180,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L38" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M38" t="n">
         <v>862.6140377103479</v>
@@ -7201,25 +7201,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T38" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U38" t="n">
-        <v>1342.315579046524</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V38" t="n">
-        <v>1342.315579046524</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="W38" t="n">
-        <v>1342.315579046524</v>
+        <v>881.3692690695102</v>
       </c>
       <c r="X38" t="n">
-        <v>1342.315579046524</v>
+        <v>881.3692690695102</v>
       </c>
       <c r="Y38" t="n">
-        <v>936.9783090014142</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>475.930883860742</v>
       </c>
       <c r="D39" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E39" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F39" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G39" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H39" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I39" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J39" t="n">
         <v>433.5238427951067</v>
@@ -7262,13 +7262,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M39" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N39" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O39" t="n">
-        <v>1357.404666497814</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P39" t="n">
         <v>1510.802781344166</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>840.7356956778319</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C40" t="n">
-        <v>668.7631325567479</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="D40" t="n">
-        <v>505.4463596835186</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="E40" t="n">
-        <v>339.2381538363721</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="F40" t="n">
-        <v>167.3763796109326</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="G40" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="H40" t="n">
-        <v>36.27616607839228</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="I40" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J40" t="n">
         <v>148.0721041840598</v>
@@ -7344,10 +7344,10 @@
         <v>1005.25223946253</v>
       </c>
       <c r="N40" t="n">
-        <v>1454.169794682635</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O40" t="n">
-        <v>1540.462922504959</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P40" t="n">
         <v>1622.490343973492</v>
@@ -7362,22 +7362,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T40" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U40" t="n">
-        <v>1813.808303919614</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V40" t="n">
-        <v>1532.096836527643</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W40" t="n">
-        <v>1257.244432700156</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X40" t="n">
-        <v>1257.244432700156</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y40" t="n">
-        <v>1030.901664389898</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.278017727834</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="C41" t="n">
-        <v>887.3772877411345</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="D41" t="n">
-        <v>887.3772877411345</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E41" t="n">
-        <v>461.4003478889921</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F41" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G41" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H41" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I41" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872645</v>
       </c>
       <c r="J41" t="n">
         <v>184.2963411149078</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L41" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M41" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103476</v>
       </c>
       <c r="N41" t="n">
-        <v>1131.245262923652</v>
+        <v>1131.245262923651</v>
       </c>
       <c r="O41" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455146</v>
       </c>
       <c r="P41" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090909</v>
       </c>
       <c r="Q41" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189219</v>
       </c>
       <c r="R41" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265893</v>
       </c>
       <c r="V41" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265893</v>
       </c>
       <c r="W41" t="n">
-        <v>1813.808303919614</v>
+        <v>1094.64685356624</v>
       </c>
       <c r="X41" t="n">
-        <v>1402.088305087361</v>
+        <v>882.1014702220648</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.278017727834</v>
+        <v>882.1014702220648</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>593.4367873432375</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C42" t="n">
-        <v>475.9308838607423</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D42" t="n">
-        <v>372.0909253760273</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E42" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G42" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H42" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I42" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968657</v>
       </c>
       <c r="J42" t="n">
         <v>433.5238427951067</v>
@@ -7499,13 +7499,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M42" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N42" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O42" t="n">
-        <v>1357.404666497814</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P42" t="n">
         <v>1510.802781344166</v>
@@ -7514,28 +7514,28 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R42" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S42" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T42" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U42" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V42" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W42" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X42" t="n">
-        <v>862.0566854100078</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y42" t="n">
-        <v>722.3637967633002</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1088.137999643809</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C43" t="n">
-        <v>916.1654365227246</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D43" t="n">
-        <v>752.8486636494953</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E43" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F43" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G43" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H43" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I43" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J43" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583895</v>
       </c>
       <c r="K43" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L43" t="n">
-        <v>606.7836421246717</v>
+        <v>356.3700675499417</v>
       </c>
       <c r="M43" t="n">
-        <v>1055.701197344776</v>
+        <v>805.287622770046</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.699903436724</v>
+        <v>1254.20517799015</v>
       </c>
       <c r="O43" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.86384135139</v>
       </c>
       <c r="Q43" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="R43" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="T43" t="n">
-        <v>1557.044664508261</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U43" t="n">
-        <v>1557.044664508261</v>
+        <v>1293.675768233715</v>
       </c>
       <c r="V43" t="n">
-        <v>1557.044664508261</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W43" t="n">
-        <v>1557.044664508261</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X43" t="n">
-        <v>1314.480767954067</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.137999643809</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F44" t="n">
         <v>438.8681156485927</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I44" t="n">
-        <v>68.0889345387269</v>
+        <v>68.08893453872666</v>
       </c>
       <c r="J44" t="n">
-        <v>184.2963411149082</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250298</v>
       </c>
       <c r="L44" t="n">
-        <v>598.9981372303104</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M44" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N44" t="n">
         <v>1131.245262923652</v>
@@ -7681,19 +7681,19 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U44" t="n">
-        <v>1617.873062032596</v>
+        <v>1555.593163543254</v>
       </c>
       <c r="V44" t="n">
-        <v>1260.383647158846</v>
+        <v>1198.103748669503</v>
       </c>
       <c r="W44" t="n">
-        <v>863.9922974591925</v>
+        <v>850.5881144808454</v>
       </c>
       <c r="X44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="Y44" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
     </row>
     <row r="45">
@@ -7709,46 +7709,46 @@
         <v>475.930883860742</v>
       </c>
       <c r="D45" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E45" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F45" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I45" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J45" t="n">
-        <v>285.5020495662115</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>734.419604786316</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L45" t="n">
-        <v>911.0584556169649</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M45" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O45" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P45" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q45" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R45" t="n">
         <v>1813.808303919613</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>380.1105034249158</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="C46" t="n">
         <v>208.1379403038318</v>
@@ -7794,34 +7794,34 @@
         <v>208.1379403038318</v>
       </c>
       <c r="F46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J46" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K46" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L46" t="n">
-        <v>556.3346842424261</v>
+        <v>595.0234223693767</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.25223946253</v>
+        <v>693.0767699469959</v>
       </c>
       <c r="N46" t="n">
-        <v>1102.250945554478</v>
+        <v>790.0754760389439</v>
       </c>
       <c r="O46" t="n">
-        <v>1238.993031259049</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P46" t="n">
         <v>1622.490343973492</v>
@@ -7836,22 +7836,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T46" t="n">
-        <v>1594.177242346417</v>
+        <v>1703.916146617304</v>
       </c>
       <c r="U46" t="n">
-        <v>1314.035540828921</v>
+        <v>1423.774445099808</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.035540828921</v>
+        <v>1142.062977707837</v>
       </c>
       <c r="W46" t="n">
-        <v>1039.183137001434</v>
+        <v>867.2105738803504</v>
       </c>
       <c r="X46" t="n">
-        <v>796.6192404472395</v>
+        <v>624.6466773261554</v>
       </c>
       <c r="Y46" t="n">
-        <v>570.2764721369815</v>
+        <v>398.3039090158975</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.360890261673447</v>
       </c>
       <c r="K12" t="n">
-        <v>326.4130602513781</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.01535248059713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362447</v>
+        <v>270.6908607606772</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.74051767574672</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>234.1036094826143</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>131.3248032493609</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.37539003541872</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>50.95854331539945</v>
       </c>
       <c r="M16" t="n">
-        <v>231.1326339375978</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541872</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>45.3448822271198</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.79595194094711</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.360890261672893</v>
+        <v>94.06963836310683</v>
       </c>
       <c r="Q21" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479649</v>
+        <v>147.8754625841163</v>
       </c>
       <c r="N22" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>132.770105401673</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>94.06963836310678</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.37539003541778</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>126.5047566361197</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M25" t="n">
-        <v>354.4082905479649</v>
+        <v>120.8910955478398</v>
       </c>
       <c r="N25" t="n">
-        <v>355.4735849779359</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O25" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>94.06963836310683</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.590345721597</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>300.7389565618863</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M28" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>124.0536869222921</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>137.5758459478522</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M31" t="n">
-        <v>354.4082905479649</v>
+        <v>120.89109554784</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O31" t="n">
-        <v>50.95854331539985</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>70.37539003541781</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>94.06963836310774</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>50.95854331539945</v>
+        <v>50.95854331539968</v>
       </c>
       <c r="M34" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>131.3248032493603</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>234.1036094826143</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>47.79595194094726</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10755,16 +10755,16 @@
         <v>354.4082905479648</v>
       </c>
       <c r="N37" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>366.287300401798</v>
+        <v>50.95854331539941</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10992,13 +10992,13 @@
         <v>354.4082905479648</v>
       </c>
       <c r="N40" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>50.95854331539941</v>
       </c>
       <c r="P40" t="n">
-        <v>11.40031649232016</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.37539003541846</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>50.95854331539957</v>
+        <v>126.5047566361197</v>
       </c>
       <c r="M43" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479647</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>355.4735849779357</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>366.287300401798</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>145.5360598390867</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>117.7883381567388</v>
       </c>
       <c r="M46" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>50.95854331539985</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>29.32103783170971</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>389.0550787572872</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>58.00016585198482</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>72.76129199593581</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>275.5197754263717</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>188.1112494399549</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>113.8998286927644</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>5.256725034435988</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>193.0143803965274</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.10482562604523</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.7223448978025</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>193.6307150660685</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>13.84531505108845</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>93.91631271983846</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>26.94664779809261</v>
+        <v>110.7862185623597</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U23" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V23" t="n">
-        <v>327.4483644183555</v>
+        <v>342.3486426765876</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>36.02245804185586</v>
       </c>
       <c r="F25" t="n">
-        <v>61.45960176058604</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.8185422817731</v>
@@ -24414,10 +24414,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S25" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>404.0840026001899</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>340.1745919256031</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.5660300744983</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.1448086517629</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T28" t="n">
-        <v>128.9073711041198</v>
+        <v>140.5902135799004</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>217.0800730088622</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24697,7 +24697,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H29" t="n">
-        <v>218.9546921126456</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24858,7 +24858,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I31" t="n">
-        <v>75.43872475250879</v>
+        <v>34.09325836675558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T31" t="n">
-        <v>128.9073711041193</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.3759135353815</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>120.3434508351561</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.8185422817731</v>
@@ -25125,16 +25125,16 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S34" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.4596017605865</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>113.5671464154081</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.5660300744983</v>
+        <v>149.7955318200222</v>
       </c>
       <c r="H35" t="n">
         <v>277.176001558223</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>98.5562917129904</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H37" t="n">
         <v>135.4602252892499</v>
@@ -25362,19 +25362,19 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S37" t="n">
-        <v>108.0868770543091</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>113.5671464154083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>368.3036522952769</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>240.3837570161732</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>34.02933088455819</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H40" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I40" t="n">
-        <v>75.43872475250879</v>
+        <v>34.09325836675558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T40" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.5660300744983</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U41" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>197.1828693331965</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.3517128587271</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T43" t="n">
-        <v>149.9903780864219</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>128.9073711041203</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U44" t="n">
-        <v>61.65709950444841</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>48.38695835588521</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26076,13 +26076,13 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T46" t="n">
-        <v>20.15617486925333</v>
+        <v>128.7976900974318</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418711.4760041406</v>
+        <v>418711.4760041407</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418711.4760041407</v>
+        <v>418711.4760041406</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>418711.4760041406</v>
+        <v>418711.4760041407</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418711.4760041407</v>
+        <v>418711.4760041408</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>418711.4760041406</v>
+        <v>418711.4760041407</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418711.4760041407</v>
+        <v>418711.4760041406</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418711.4760041407</v>
+        <v>418711.4760041406</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>130703.8902560561</v>
       </c>
       <c r="F2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="G2" t="n">
         <v>130703.8902560561</v>
@@ -26352,7 +26352,7 @@
         <v>130703.8902560561</v>
       </c>
       <c r="O2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="P2" t="n">
         <v>130703.8902560561</v>
@@ -26426,7 +26426,7 @@
         <v>8835.981590351535</v>
       </c>
       <c r="E4" t="n">
-        <v>11616.08862528839</v>
+        <v>11616.08862528838</v>
       </c>
       <c r="F4" t="n">
         <v>11616.08862528839</v>
@@ -26435,7 +26435,7 @@
         <v>11616.08862528839</v>
       </c>
       <c r="H4" t="n">
-        <v>11616.08862528838</v>
+        <v>11616.08862528839</v>
       </c>
       <c r="I4" t="n">
         <v>11616.08862528838</v>
@@ -26447,7 +26447,7 @@
         <v>11616.08862528838</v>
       </c>
       <c r="L4" t="n">
-        <v>11616.08862528838</v>
+        <v>11616.08862528839</v>
       </c>
       <c r="M4" t="n">
         <v>11616.08862528838</v>
@@ -26456,7 +26456,7 @@
         <v>11616.08862528838</v>
       </c>
       <c r="O4" t="n">
-        <v>11616.08862528839</v>
+        <v>11616.08862528838</v>
       </c>
       <c r="P4" t="n">
         <v>11616.08862528838</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>-398915.1490247655</v>
+        <v>-399602.4092815224</v>
       </c>
       <c r="F6" t="n">
-        <v>82138.50081772625</v>
+        <v>81451.24056096919</v>
       </c>
       <c r="G6" t="n">
-        <v>82138.50081772616</v>
+        <v>81451.24056096919</v>
       </c>
       <c r="H6" t="n">
-        <v>82138.50081772621</v>
+        <v>81451.24056096919</v>
       </c>
       <c r="I6" t="n">
-        <v>82138.50081772616</v>
+        <v>81451.24056096918</v>
       </c>
       <c r="J6" t="n">
-        <v>82138.50081772619</v>
+        <v>81451.24056096918</v>
       </c>
       <c r="K6" t="n">
-        <v>82138.50081772618</v>
+        <v>81451.24056096924</v>
       </c>
       <c r="L6" t="n">
-        <v>82138.50081772618</v>
+        <v>81451.24056096913</v>
       </c>
       <c r="M6" t="n">
-        <v>-30863.57032476967</v>
+        <v>-31550.83058152663</v>
       </c>
       <c r="N6" t="n">
-        <v>82138.50081772621</v>
+        <v>81451.24056096918</v>
       </c>
       <c r="O6" t="n">
-        <v>82138.50081772622</v>
+        <v>81451.24056096921</v>
       </c>
       <c r="P6" t="n">
-        <v>82138.50081772616</v>
+        <v>81451.24056096915</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="J3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="K3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="L3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="M3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="N3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="O3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="P3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
     </row>
     <row r="4">
@@ -26816,10 +26816,10 @@
         <v>453.4520759799034</v>
       </c>
       <c r="K4" t="n">
+        <v>453.4520759799034</v>
+      </c>
+      <c r="L4" t="n">
         <v>453.4520759799035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>453.4520759799034</v>
       </c>
       <c r="M4" t="n">
         <v>453.4520759799034</v>
@@ -26828,10 +26828,10 @@
         <v>453.4520759799034</v>
       </c>
       <c r="O4" t="n">
+        <v>453.4520759799033</v>
+      </c>
+      <c r="P4" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="P4" t="n">
-        <v>453.4520759799035</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H23" t="n">
         <v>17.71369318248255</v>
@@ -32724,7 +32724,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O23" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P23" t="n">
         <v>248.7246402301936</v>
@@ -32739,7 +32739,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T23" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U23" t="n">
         <v>0.1383713369558016</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H24" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I24" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J24" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K24" t="n">
         <v>149.4382495618586</v>
@@ -32797,7 +32797,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M24" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N24" t="n">
         <v>240.6914947108307</v>
@@ -32812,7 +32812,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R24" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S24" t="n">
         <v>17.18964029916807</v>
@@ -32821,7 +32821,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H25" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I25" t="n">
         <v>23.332157824618</v>
@@ -32870,7 +32870,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K25" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L25" t="n">
         <v>115.3488842393599</v>
@@ -32885,10 +32885,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P25" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R25" t="n">
         <v>34.88538470391794</v>
@@ -32897,10 +32897,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T25" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H26" t="n">
         <v>17.71369318248255</v>
@@ -32961,7 +32961,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O26" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P26" t="n">
         <v>248.7246402301936</v>
@@ -32976,7 +32976,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T26" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U26" t="n">
         <v>0.1383713369558016</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H27" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I27" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J27" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K27" t="n">
         <v>149.4382495618586</v>
@@ -33034,7 +33034,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M27" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N27" t="n">
         <v>240.6914947108307</v>
@@ -33049,7 +33049,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R27" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S27" t="n">
         <v>17.18964029916807</v>
@@ -33058,7 +33058,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H28" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I28" t="n">
         <v>23.332157824618</v>
@@ -33107,7 +33107,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K28" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L28" t="n">
         <v>115.3488842393599</v>
@@ -33122,10 +33122,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P28" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R28" t="n">
         <v>34.88538470391794</v>
@@ -33134,10 +33134,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T28" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H29" t="n">
         <v>17.71369318248255</v>
@@ -33198,7 +33198,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O29" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P29" t="n">
         <v>248.7246402301936</v>
@@ -33213,7 +33213,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T29" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U29" t="n">
         <v>0.1383713369558016</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H30" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I30" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J30" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K30" t="n">
         <v>149.4382495618586</v>
@@ -33271,7 +33271,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M30" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N30" t="n">
         <v>240.6914947108307</v>
@@ -33286,7 +33286,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R30" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S30" t="n">
         <v>17.18964029916807</v>
@@ -33295,7 +33295,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H31" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I31" t="n">
         <v>23.332157824618</v>
@@ -33344,7 +33344,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K31" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L31" t="n">
         <v>115.3488842393599</v>
@@ -33359,10 +33359,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P31" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R31" t="n">
         <v>34.88538470391794</v>
@@ -33371,10 +33371,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T31" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H32" t="n">
         <v>17.71369318248255</v>
@@ -33435,7 +33435,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O32" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P32" t="n">
         <v>248.7246402301936</v>
@@ -33450,7 +33450,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T32" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U32" t="n">
         <v>0.1383713369558016</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H33" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I33" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J33" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K33" t="n">
         <v>149.4382495618586</v>
@@ -33508,7 +33508,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M33" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N33" t="n">
         <v>240.6914947108307</v>
@@ -33523,7 +33523,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R33" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S33" t="n">
         <v>17.18964029916807</v>
@@ -33532,7 +33532,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H34" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I34" t="n">
         <v>23.332157824618</v>
@@ -33581,7 +33581,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K34" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L34" t="n">
         <v>115.3488842393599</v>
@@ -33596,10 +33596,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P34" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R34" t="n">
         <v>34.88538470391794</v>
@@ -33608,10 +33608,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T34" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H35" t="n">
         <v>17.71369318248255</v>
@@ -33672,7 +33672,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O35" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P35" t="n">
         <v>248.7246402301936</v>
@@ -33687,7 +33687,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T35" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U35" t="n">
         <v>0.1383713369558016</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H36" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I36" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J36" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K36" t="n">
         <v>149.4382495618586</v>
@@ -33745,7 +33745,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M36" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N36" t="n">
         <v>240.6914947108307</v>
@@ -33760,7 +33760,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R36" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S36" t="n">
         <v>17.18964029916807</v>
@@ -33769,7 +33769,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H37" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I37" t="n">
         <v>23.332157824618</v>
@@ -33818,7 +33818,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K37" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L37" t="n">
         <v>115.3488842393599</v>
@@ -33833,10 +33833,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P37" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R37" t="n">
         <v>34.88538470391794</v>
@@ -33845,10 +33845,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T37" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H38" t="n">
         <v>17.71369318248255</v>
@@ -33909,7 +33909,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O38" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P38" t="n">
         <v>248.7246402301936</v>
@@ -33924,7 +33924,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T38" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U38" t="n">
         <v>0.1383713369558016</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H39" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I39" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J39" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K39" t="n">
         <v>149.4382495618586</v>
@@ -33982,7 +33982,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N39" t="n">
         <v>240.6914947108307</v>
@@ -33997,7 +33997,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R39" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S39" t="n">
         <v>17.18964029916807</v>
@@ -34006,7 +34006,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H40" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I40" t="n">
         <v>23.332157824618</v>
@@ -34055,7 +34055,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K40" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L40" t="n">
         <v>115.3488842393599</v>
@@ -34070,10 +34070,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P40" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R40" t="n">
         <v>34.88538470391794</v>
@@ -34082,10 +34082,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T40" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H41" t="n">
         <v>17.71369318248255</v>
@@ -34146,7 +34146,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O41" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P41" t="n">
         <v>248.7246402301936</v>
@@ -34161,7 +34161,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T41" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U41" t="n">
         <v>0.1383713369558016</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H42" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I42" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J42" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K42" t="n">
         <v>149.4382495618586</v>
@@ -34219,7 +34219,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M42" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N42" t="n">
         <v>240.6914947108307</v>
@@ -34234,7 +34234,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R42" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S42" t="n">
         <v>17.18964029916807</v>
@@ -34243,7 +34243,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H43" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I43" t="n">
         <v>23.332157824618</v>
@@ -34292,7 +34292,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K43" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L43" t="n">
         <v>115.3488842393599</v>
@@ -34307,10 +34307,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P43" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R43" t="n">
         <v>34.88538470391794</v>
@@ -34319,10 +34319,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T43" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H44" t="n">
         <v>17.71369318248255</v>
@@ -34383,7 +34383,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O44" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P44" t="n">
         <v>248.7246402301936</v>
@@ -34398,7 +34398,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T44" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U44" t="n">
         <v>0.1383713369558016</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H45" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I45" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J45" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K45" t="n">
         <v>149.4382495618586</v>
@@ -34456,7 +34456,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N45" t="n">
         <v>240.6914947108307</v>
@@ -34471,7 +34471,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R45" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S45" t="n">
         <v>17.18964029916807</v>
@@ -34480,7 +34480,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H46" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I46" t="n">
         <v>23.332157824618</v>
@@ -34529,7 +34529,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K46" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L46" t="n">
         <v>115.3488842393599</v>
@@ -34544,10 +34544,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P46" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R46" t="n">
         <v>34.88538470391794</v>
@@ -34556,10 +34556,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T46" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326163</v>
+        <v>74.18355200493509</v>
       </c>
       <c r="K12" t="n">
-        <v>453.4520759799034</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>217.4384341277172</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960186</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799034</v>
+        <v>364.1209851043359</v>
       </c>
       <c r="M13" t="n">
-        <v>99.04378543193859</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196758</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O13" t="n">
         <v>453.4520759799034</v>
@@ -35588,7 +35588,7 @@
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.0884596638506</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
@@ -35737,16 +35737,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
-        <v>219.3484664972891</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>286.2723940032524</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.7599435450206</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>144.3886676590582</v>
       </c>
       <c r="M16" t="n">
-        <v>330.1764193695364</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326305</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
@@ -35977,13 +35977,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450206</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="P19" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.143893929051</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332749</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201445</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
         <v>127.0390157285253</v>
@@ -36217,10 +36217,10 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
-        <v>162.3084810155644</v>
+        <v>249.0172291169984</v>
       </c>
       <c r="Q21" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
+        <v>246.9192480160549</v>
+      </c>
+      <c r="N22" t="n">
+        <v>97.97849100196758</v>
+      </c>
+      <c r="O22" t="n">
         <v>453.4520759799035</v>
-      </c>
-      <c r="N22" t="n">
-        <v>453.4520759799035</v>
-      </c>
-      <c r="O22" t="n">
-        <v>219.9348809797784</v>
       </c>
       <c r="P22" t="n">
         <v>71.45566478902609</v>
@@ -36357,22 +36357,22 @@
         <v>32.13410955589335</v>
       </c>
       <c r="J23" t="n">
-        <v>117.3812187638198</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K23" t="n">
         <v>184.2523111213353</v>
       </c>
       <c r="L23" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M23" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N23" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O23" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P23" t="n">
         <v>211.1492784199623</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>39.38459507201446</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J24" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K24" t="n">
-        <v>127.0390157285253</v>
+        <v>221.108654091632</v>
       </c>
       <c r="L24" t="n">
         <v>178.4230816471201</v>
@@ -36451,13 +36451,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O24" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P24" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.7599435450197</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R24" t="n">
         <v>140.3062408746237</v>
@@ -36518,13 +36518,13 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K25" t="n">
-        <v>69.17590691325471</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L25" t="n">
+        <v>453.4520759799035</v>
+      </c>
+      <c r="M25" t="n">
         <v>219.9348809797784</v>
-      </c>
-      <c r="M25" t="n">
-        <v>453.4520759799035</v>
       </c>
       <c r="N25" t="n">
         <v>453.4520759799035</v>
@@ -36533,10 +36533,10 @@
         <v>453.4520759799035</v>
       </c>
       <c r="P25" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L26" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M26" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N26" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O26" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P26" t="n">
         <v>211.1492784199623</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69034674432573</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J27" t="n">
         <v>361.8756844398183</v>
@@ -36688,16 +36688,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O27" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P27" t="n">
-        <v>154.9475907538915</v>
+        <v>249.0172291169984</v>
       </c>
       <c r="Q27" t="n">
-        <v>295.9748992311989</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R27" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K28" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L28" t="n">
-        <v>394.1690809055451</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M28" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N28" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O28" t="n">
-        <v>87.16477557810538</v>
+        <v>211.2184625003975</v>
       </c>
       <c r="P28" t="n">
         <v>387.3710229438823</v>
@@ -36837,16 +36837,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L29" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M29" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N29" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O29" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P29" t="n">
         <v>211.1492784199623</v>
@@ -36855,7 +36855,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R29" t="n">
-        <v>73.61695629332726</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J30" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K30" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639433</v>
       </c>
       <c r="L30" t="n">
         <v>178.4230816471201</v>
@@ -36922,19 +36922,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N30" t="n">
-        <v>356.9243124451413</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O30" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P30" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q30" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R30" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K31" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L31" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M31" t="n">
-        <v>453.4520759799035</v>
+        <v>219.9348809797786</v>
       </c>
       <c r="N31" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O31" t="n">
-        <v>138.1233188935052</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P31" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L32" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M32" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N32" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O32" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378743</v>
       </c>
       <c r="P32" t="n">
         <v>211.1492784199623</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>39.38459507201446</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J33" t="n">
         <v>361.8756844398183</v>
@@ -37153,7 +37153,7 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L33" t="n">
-        <v>248.798471682538</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M33" t="n">
         <v>211.3885843242576</v>
@@ -37162,13 +37162,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O33" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P33" t="n">
-        <v>154.9475907538915</v>
+        <v>249.0172291169993</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R33" t="n">
         <v>140.3062408746237</v>
@@ -37232,16 +37232,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L34" t="n">
-        <v>144.3886676590582</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="M34" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N34" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O34" t="n">
-        <v>87.16477557810538</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P34" t="n">
         <v>387.3710229438823</v>
@@ -37311,16 +37311,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L35" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M35" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N35" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O35" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P35" t="n">
         <v>211.1492784199623</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J36" t="n">
-        <v>198.1474649926219</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K36" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639433</v>
       </c>
       <c r="L36" t="n">
         <v>178.4230816471201</v>
@@ -37396,16 +37396,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N36" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O36" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P36" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R36" t="n">
         <v>140.3062408746237</v>
@@ -37466,7 +37466,7 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K37" t="n">
-        <v>116.971858854202</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L37" t="n">
         <v>93.43012434365872</v>
@@ -37475,16 +37475,16 @@
         <v>453.4520759799034</v>
       </c>
       <c r="N37" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O37" t="n">
-        <v>453.4520759799034</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P37" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L38" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M38" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N38" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O38" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P38" t="n">
         <v>211.1492784199623</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J39" t="n">
         <v>361.8756844398183</v>
@@ -37636,13 +37636,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O39" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P39" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.7599435450197</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R39" t="n">
         <v>140.3062408746237</v>
@@ -37712,13 +37712,13 @@
         <v>453.4520759799034</v>
       </c>
       <c r="N40" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O40" t="n">
-        <v>87.16477557810538</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P40" t="n">
-        <v>82.85598128134626</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q40" t="n">
         <v>193.2504645920423</v>
@@ -37785,16 +37785,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L41" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M41" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N41" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O41" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P41" t="n">
         <v>211.1492784199623</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J42" t="n">
         <v>361.8756844398183</v>
@@ -37873,13 +37873,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O42" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P42" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.7599435450203</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R42" t="n">
         <v>140.3062408746237</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K43" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L43" t="n">
-        <v>144.3886676590583</v>
+        <v>219.9348809797784</v>
       </c>
       <c r="M43" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799033</v>
       </c>
       <c r="N43" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799033</v>
       </c>
       <c r="O43" t="n">
-        <v>87.16477557810538</v>
+        <v>453.4520759799033</v>
       </c>
       <c r="P43" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L44" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M44" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N44" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O44" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P44" t="n">
         <v>211.1492784199623</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J45" t="n">
-        <v>212.3587215823484</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K45" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L45" t="n">
         <v>178.4230816471201</v>
@@ -38110,16 +38110,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O45" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P45" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R45" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K46" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L46" t="n">
-        <v>93.43012434365872</v>
+        <v>211.2184625003975</v>
       </c>
       <c r="M46" t="n">
-        <v>453.4520759799035</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N46" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O46" t="n">
-        <v>138.1233188935052</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P46" t="n">
         <v>387.3710229438823</v>
